--- a/Bets Converter.xlsx
+++ b/Bets Converter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norax\Desktop\Projects\MPT Betting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norax\Desktop\Projects\MPT-Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AC76E0-6522-4C10-BFC3-C46285472AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC10B66-2C36-40AA-9C48-A60E38FE8BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29190" yWindow="8145" windowWidth="28155" windowHeight="10680" xr2:uid="{4739CD35-747A-4FA0-9BD7-8C93A35FE5F0}"/>
+    <workbookView xWindow="19575" yWindow="3345" windowWidth="31155" windowHeight="10680" xr2:uid="{4739CD35-747A-4FA0-9BD7-8C93A35FE5F0}"/>
   </bookViews>
   <sheets>
     <sheet name="American Odds" sheetId="1" r:id="rId1"/>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD766AB-1285-4E31-82B2-5F12C874BF7A}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +818,53 @@
       </c>
       <c r="N6" s="2"/>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.277777777</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="4">
+        <f>1/B7</f>
+        <v>3.60000001008</v>
+      </c>
+      <c r="E7" s="7">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7">
+        <f>E7*D7</f>
+        <v>90.000000252000007</v>
+      </c>
+      <c r="G7" s="7">
+        <f>F7-E7</f>
+        <v>65.000000252000007</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(C7*G7)-((1-C7)*E7)</f>
+        <v>2.0000000756000027</v>
+      </c>
+      <c r="I7" s="5">
+        <f>G7/E7</f>
+        <v>2.6000000100800005</v>
+      </c>
+      <c r="J7" s="5">
+        <f>(C7*(I7^2))+((1-C7))</f>
+        <v>2.7280000157248008</v>
+      </c>
+      <c r="K7" s="5">
+        <f>H7/E7</f>
+        <v>8.0000003024000108E-2</v>
+      </c>
+      <c r="L7" s="5">
+        <f>J7-(K7^2)</f>
+        <v>2.721600015240961</v>
+      </c>
+      <c r="M7" s="5">
+        <f>SQRT(L7)</f>
+        <v>1.649727254803339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
